--- a/H2CS2/inputs/input.xlsx
+++ b/H2CS2/inputs/input.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="478" documentId="8_{7C0CE778-C236-4620-B0C8-71EC64E3B983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1BF7EF-1E60-499E-BBFF-4DFC0A23609F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="3" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="6" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="6" r:id="rId1"/>
@@ -2149,9 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859B5229-E94A-4079-9757-A01BBA7C9852}">
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="D1" zoomScale="66" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16005,7 +16005,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16532,8 +16532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97700AB-AD34-4C0B-8BDF-66BBA1C2B828}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19256,7 +19256,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19374,7 +19374,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B38"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23041,7 +23041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03903C7-1A75-4899-99E1-0F471DE44DCA}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:AD2"/>
     </sheetView>
   </sheetViews>
